--- a/data/trans_dic/P69$problemSueño-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P69$problemSueño-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2978504979977469</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.236924827847549</v>
+        <v>0.2369248278475491</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1599878891302369</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08395466085091925</v>
+        <v>0.08467618014040597</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1081301312818765</v>
+        <v>0.1022965760774168</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1237570692217572</v>
+        <v>0.129494118080775</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09017203515428927</v>
+        <v>0.09570743286425737</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06261602472414243</v>
+        <v>0.08295890029923504</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1813537763358816</v>
+        <v>0.1812965564891199</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1535412977776456</v>
+        <v>0.1502004087438107</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1591568818204402</v>
+        <v>0.158386572154791</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1006608730285182</v>
+        <v>0.09646552652281402</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1594385901376895</v>
+        <v>0.1526278641776921</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1702062632655055</v>
+        <v>0.1635344207024538</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1492267158538538</v>
+        <v>0.1425826311448394</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.257383783821742</v>
+        <v>0.2608103508785365</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2645289937688334</v>
+        <v>0.2780008099637755</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.371971055187624</v>
+        <v>0.3786813700584059</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3627133731085579</v>
+        <v>0.3316060465627087</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.36705613016189</v>
+        <v>0.3721937199164539</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.523445362446664</v>
+        <v>0.5141569822284885</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5021226830305257</v>
+        <v>0.4908527684436026</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3433329772590601</v>
+        <v>0.3287815457650896</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2554913506652255</v>
+        <v>0.2348686684241447</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3156707376939197</v>
+        <v>0.3135992614410825</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3697925515303996</v>
+        <v>0.3658212417863672</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.317916469586368</v>
+        <v>0.3017812633104571</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1723452889875994</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1936724871186291</v>
+        <v>0.1936724871186292</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1600727725342915</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1578151425975775</v>
+        <v>0.1596548359394764</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1598070163044366</v>
+        <v>0.1560550354745588</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1012095607624893</v>
+        <v>0.09877669121551232</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1228722435176054</v>
+        <v>0.1224101710909633</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07723466207707438</v>
+        <v>0.07809609000373434</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2348198924564759</v>
+        <v>0.2192603846761018</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2240384261690375</v>
+        <v>0.2223195469856694</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1921856907154467</v>
+        <v>0.1988438762036286</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.148787407504987</v>
+        <v>0.1518138544171793</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2150294152383315</v>
+        <v>0.2159734806451317</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1647058116464508</v>
+        <v>0.1663845895966826</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1711513955855992</v>
+        <v>0.1735381354066499</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3081765088583329</v>
+        <v>0.2983556705940335</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3354564750552053</v>
+        <v>0.3416232983681819</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2787526662067502</v>
+        <v>0.2723470567034375</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2916530937354271</v>
+        <v>0.2921287218307718</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.285506374028399</v>
+        <v>0.2836375466843719</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4752291977884652</v>
+        <v>0.4758970591034389</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4912289829289132</v>
+        <v>0.4896917125319947</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3382758740119283</v>
+        <v>0.3427070795085555</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2713657000083182</v>
+        <v>0.2688963800260157</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3618085950283083</v>
+        <v>0.3683437012374294</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3137791488880483</v>
+        <v>0.3183836890605696</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2860017807456203</v>
+        <v>0.2901724684333217</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2711720617499645</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2719789308660354</v>
+        <v>0.2719789308660355</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2242672007189377</v>
@@ -969,7 +969,7 @@
         <v>0.2639415221937483</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2288090714142541</v>
+        <v>0.228809071414254</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1320331521680181</v>
+        <v>0.1241921617726831</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2580756693024649</v>
+        <v>0.2570740236124293</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1759354796562764</v>
+        <v>0.1788099231097816</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08818357241082471</v>
+        <v>0.08851164410109326</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1593666251779893</v>
+        <v>0.1593597221417024</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1123791337697683</v>
+        <v>0.1116177404247266</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1639024263728166</v>
+        <v>0.174662500103197</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1783107371097504</v>
+        <v>0.1873822319456939</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1641862927639672</v>
+        <v>0.1557028295072858</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2137899178242954</v>
+        <v>0.2238102889845283</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1973935679584428</v>
+        <v>0.1945196058750752</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1628830355035384</v>
+        <v>0.1617233809840186</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3010137971032744</v>
+        <v>0.2992443758008004</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4667447372562204</v>
+        <v>0.4790517228537124</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3495309381622876</v>
+        <v>0.360519116199549</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3200629981834113</v>
+        <v>0.3056811669298313</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4192930100030325</v>
+        <v>0.4060719741099635</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3375098440792418</v>
+        <v>0.3504089381396137</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3860004627368158</v>
+        <v>0.3868378550292892</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3756913924245203</v>
+        <v>0.3850944505742923</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3103818394040059</v>
+        <v>0.3025187509965158</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3857153917026407</v>
+        <v>0.3860723363408033</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3421946547882384</v>
+        <v>0.3335486400865201</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3058553582763072</v>
+        <v>0.3070707338303937</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.2932417374202518</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2313134571916607</v>
+        <v>0.2313134571916608</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2339333871466824</v>
@@ -1105,7 +1105,7 @@
         <v>0.3297540681057994</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2766221317674489</v>
+        <v>0.276622131767449</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2150441544575735</v>
+        <v>0.2234653724923686</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.15996641539455</v>
+        <v>0.1664094460672311</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2025749456036053</v>
+        <v>0.1913912914511118</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1538935723703567</v>
+        <v>0.1560898253019953</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1587941509379951</v>
+        <v>0.1601748151896454</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2016514149300468</v>
+        <v>0.1887210091347649</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2514451540221834</v>
+        <v>0.2547992286860601</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2430327489801236</v>
+        <v>0.2448425903865921</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2065819790752747</v>
+        <v>0.206564558235612</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2020912210354451</v>
+        <v>0.2056057236320289</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2513150392735959</v>
+        <v>0.2563175308002282</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2208675862721891</v>
+        <v>0.2237788751775155</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.373328602237741</v>
+        <v>0.3803418966752355</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3665907523966454</v>
+        <v>0.3614818363311105</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4014750450562092</v>
+        <v>0.3888041849913258</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3301933198211804</v>
+        <v>0.3289459621999049</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3342943965269133</v>
+        <v>0.3282170586674687</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4183009135618153</v>
+        <v>0.4316371070983998</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5114374315428035</v>
+        <v>0.5055205237533174</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4050632350322083</v>
+        <v>0.3986747406095041</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3247370538834888</v>
+        <v>0.3293463116377645</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3513137029135927</v>
+        <v>0.3547887567774106</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4161067566915068</v>
+        <v>0.4182264966772105</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3406519880273869</v>
+        <v>0.3388328887396304</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.2732659854733177</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2389536729430189</v>
+        <v>0.238953672943019</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1894013191336443</v>
+        <v>0.1873924258736802</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.212914236945133</v>
+        <v>0.2132797008437958</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1946727549170868</v>
+        <v>0.1941660720578201</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1568703691854462</v>
+        <v>0.1581318524584129</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1619313647916679</v>
+        <v>0.166400985339355</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2335090934262103</v>
+        <v>0.2320380269767979</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.259377463026892</v>
+        <v>0.2617988119915161</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.239574652690845</v>
+        <v>0.2431408857475938</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1904501091331066</v>
+        <v>0.1910048197338785</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2355052811714541</v>
+        <v>0.2355155119513595</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2332539957566478</v>
+        <v>0.237417929821642</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2083285225840051</v>
+        <v>0.2077348694847579</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2691109502259632</v>
+        <v>0.2680494230285334</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3119445969682927</v>
+        <v>0.3135876314678778</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.294735158591546</v>
+        <v>0.2971918185816532</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2533460967370677</v>
+        <v>0.2574734161691136</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2746614329706836</v>
+        <v>0.2743791551200981</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3578815237715143</v>
+        <v>0.3603438400527519</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3913119486766963</v>
+        <v>0.3878154785327563</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3193804785426804</v>
+        <v>0.3266112253228539</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2576141302133736</v>
+        <v>0.2555731421493981</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3109555012018569</v>
+        <v>0.3145309897047655</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3092089112427381</v>
+        <v>0.3176106768921249</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2733335754438057</v>
+        <v>0.2706334494887445</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6660</v>
+        <v>6717</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8281</v>
+        <v>7834</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6649</v>
+        <v>6957</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6767</v>
+        <v>7182</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2019</v>
+        <v>2675</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6214</v>
+        <v>6212</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4593</v>
+        <v>4493</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9521</v>
+        <v>9475</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>11231</v>
+        <v>10763</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>17672</v>
+        <v>16918</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>14236</v>
+        <v>13678</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>20125</v>
+        <v>19229</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20419</v>
+        <v>20690</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>20258</v>
+        <v>21289</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19985</v>
+        <v>20345</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>27219</v>
+        <v>24885</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>11834</v>
+        <v>12000</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>17934</v>
+        <v>17616</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>15021</v>
+        <v>14684</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>20539</v>
+        <v>19668</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>28506</v>
+        <v>26205</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>34990</v>
+        <v>34760</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>30930</v>
+        <v>30598</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>42876</v>
+        <v>40700</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>23038</v>
+        <v>23307</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14671</v>
+        <v>14327</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9816</v>
+        <v>9580</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>16253</v>
+        <v>16192</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4078</v>
+        <v>4123</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>14911</v>
+        <v>13923</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>12446</v>
+        <v>12350</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>20377</v>
+        <v>21083</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>29576</v>
+        <v>30177</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>33395</v>
+        <v>33542</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>25123</v>
+        <v>25379</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>40785</v>
+        <v>41354</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>44988</v>
+        <v>43554</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>30797</v>
+        <v>31363</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>27035</v>
+        <v>26413</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>38578</v>
+        <v>38641</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>15074</v>
+        <v>14975</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>30176</v>
+        <v>30219</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>27289</v>
+        <v>27203</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>35866</v>
+        <v>36336</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>53941</v>
+        <v>53450</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>56190</v>
+        <v>57205</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>47862</v>
+        <v>48565</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>68154</v>
+        <v>69148</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14516</v>
+        <v>13654</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>20532</v>
+        <v>20452</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>19341</v>
+        <v>19657</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5934</v>
+        <v>5956</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7416</v>
+        <v>7415</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5954</v>
+        <v>5913</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>10612</v>
+        <v>11309</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>12609</v>
+        <v>13250</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>25691</v>
+        <v>24364</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>28335</v>
+        <v>29663</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>34481</v>
+        <v>33979</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>22478</v>
+        <v>22318</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>33095</v>
+        <v>32900</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>37133</v>
+        <v>38112</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>38426</v>
+        <v>39634</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>21537</v>
+        <v>20569</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>19511</v>
+        <v>18896</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>17881</v>
+        <v>18564</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>24992</v>
+        <v>25047</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>26566</v>
+        <v>27231</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>48568</v>
+        <v>47337</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>51121</v>
+        <v>51168</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>59775</v>
+        <v>58265</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>42209</v>
+        <v>42376</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>29295</v>
+        <v>30442</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12522</v>
+        <v>13027</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17720</v>
+        <v>16742</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>16426</v>
+        <v>16660</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>14061</v>
+        <v>14184</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>12925</v>
+        <v>12096</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>16616</v>
+        <v>16838</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>25707</v>
+        <v>25898</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>46435</v>
+        <v>46431</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>28773</v>
+        <v>29274</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>38592</v>
+        <v>39360</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>46936</v>
+        <v>47555</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>50858</v>
+        <v>51813</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>28697</v>
+        <v>28297</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>35119</v>
+        <v>34011</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>35243</v>
+        <v>35110</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>29602</v>
+        <v>29064</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>26811</v>
+        <v>27666</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>33797</v>
+        <v>33406</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>42846</v>
+        <v>42170</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>72994</v>
+        <v>74030</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>50019</v>
+        <v>50514</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>63897</v>
+        <v>64222</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>72392</v>
+        <v>72005</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>89300</v>
+        <v>88353</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>69458</v>
+        <v>69577</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>67770</v>
+        <v>67593</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>59821</v>
+        <v>60302</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>35644</v>
+        <v>36628</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>50166</v>
+        <v>49850</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>56103</v>
+        <v>56627</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>82015</v>
+        <v>83236</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>131716</v>
+        <v>132100</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>127422</v>
+        <v>127428</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>131653</v>
+        <v>134003</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>150762</v>
+        <v>150333</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>126882</v>
+        <v>126381</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>101764</v>
+        <v>102300</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>102604</v>
+        <v>103459</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>96612</v>
+        <v>98185</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>60459</v>
+        <v>60397</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>76885</v>
+        <v>77414</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>84640</v>
+        <v>83884</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>109335</v>
+        <v>111810</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>178167</v>
+        <v>176756</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>168246</v>
+        <v>170180</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>174523</v>
+        <v>179266</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>197805</v>
+        <v>195851</v>
       </c>
     </row>
     <row r="24">
